--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYA\Desktop\ALL STUDY STUFF\DSA 450 SOLUTION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYA\Desktop\ALL STUDY STUFF\DSA-450-Solved-Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1937,8 +1937,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1948,8 +1948,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1959,8 +1959,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1970,8 +1970,8 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
+      <c r="C11" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1981,8 +1981,8 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1992,8 +1992,8 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="C13" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
